--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A30057-9607-43FD-95D4-51D6677EABFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF64233-CDB0-4E4F-9CB2-7082DA32CCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="60">
   <si>
     <t>General population</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Follow the curve</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
   </si>
 </sst>
 </file>
@@ -258,11 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,9 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2794AB8-A2FA-4898-8B2A-2A83645A0C40}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -838,9 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA8F3A-40A9-4BA2-90D8-EC2D921A3DDC}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1499,9 +1499,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1534,7 +1534,7 @@
         <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>0.05</v>
       </c>
       <c r="D3">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>0.15</v>
       </c>
       <c r="D5">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>0.13513513513513514</v>
       </c>
       <c r="D7">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>0.27027027027027029</v>
       </c>
       <c r="D8">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>0.27027027027027029</v>
       </c>
       <c r="D9">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>0.10810810810810811</v>
       </c>
       <c r="D10">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>0.21621621621621623</v>
       </c>
       <c r="D11">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>0.43749999999999994</v>
       </c>
       <c r="D12">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>0.25</v>
       </c>
       <c r="D13">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>0.3125</v>
       </c>
       <c r="D14">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>8.5714285714285701E-2</v>
       </c>
       <c r="D15">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>0.22857142857142856</v>
       </c>
       <c r="D16">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>0.22857142857142856</v>
       </c>
       <c r="D17">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>0.22857142857142856</v>
       </c>
       <c r="D18">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>0.22857142857142856</v>
       </c>
       <c r="D19">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="D20">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="D21">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="D22">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>0.10526315789473685</v>
       </c>
       <c r="D23">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>0.4210526315789474</v>
       </c>
       <c r="D24">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>0.8</v>
       </c>
       <c r="D25">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>8.2644628099173556E-3</v>
       </c>
       <c r="D27">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>8.2644628099173556E-2</v>
       </c>
       <c r="D28">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>4.1322314049586778E-2</v>
       </c>
       <c r="D29">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>0.24793388429752067</v>
       </c>
       <c r="D30">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>0.57851239669421484</v>
       </c>
       <c r="D31">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,161 +1954,161 @@
         <v>4.1322314049586778E-2</v>
       </c>
       <c r="D32">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
+      <c r="A33" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33">
-        <v>0.11538461538461538</v>
+        <v>0.11764705882352942</v>
       </c>
       <c r="D33">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
+      <c r="A34" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>0.15384615384615385</v>
+        <v>0.11764705882352942</v>
       </c>
       <c r="D34">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
+      <c r="A35" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>0.30769230769230771</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="D35">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
+      <c r="A36" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>0.11538461538461538</v>
+        <v>0.23529411764705885</v>
       </c>
       <c r="D36">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
+      <c r="A37" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>0.30769230769230771</v>
+        <v>0.11764705882352942</v>
       </c>
       <c r="D37">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
+      <c r="A38" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>0.13636363636363635</v>
+        <v>0.11764705882352942</v>
       </c>
       <c r="D38">
-        <v>0.62</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>0.13636363636363635</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D39">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>4.5454545454545456E-2</v>
+        <v>0.11538461538461538</v>
       </c>
       <c r="D40">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>0.13636363636363635</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D41">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>0.36363636363636365</v>
+        <v>0.11538461538461538</v>
       </c>
       <c r="D42">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43">
-        <v>9.0909090909090912E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D43">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,181 +2116,181 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>9.0909090909090912E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D44">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>0.24242424242424246</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D45">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46">
-        <v>0.21212121212121213</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D46">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>0.12121212121212123</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D47">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D48">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49">
-        <v>0.21212121212121213</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D49">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50">
-        <v>0.21212121212121213</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D50">
-        <v>0.62</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>0.3174603174603175</v>
+        <v>0.24242424242424246</v>
       </c>
       <c r="D51">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>9.5238095238095247E-2</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D52">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>0.22222222222222224</v>
+        <v>0.12121212121212123</v>
       </c>
       <c r="D53">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>1.5873015873015876E-2</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>9.5238095238095247E-2</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D55">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56">
-        <v>0.15873015873015875</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="D56">
-        <v>0.62</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,97 +2298,97 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>9.5238095238095247E-2</v>
+        <v>0.3174603174603175</v>
       </c>
       <c r="D57">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C58">
-        <v>0.1</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D58">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="D59">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C60">
-        <v>0.125</v>
+        <v>1.5873015873015876E-2</v>
       </c>
       <c r="D60">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C61">
-        <v>0.125</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D61">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62">
-        <v>0.2</v>
+        <v>0.15873015873015875</v>
       </c>
       <c r="D62">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C63">
-        <v>0.17499999999999999</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D63">
-        <v>0.62</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,13 +2396,97 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>0.1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65">
+        <v>0.1</v>
+      </c>
+      <c r="D65">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>0.125</v>
+      </c>
+      <c r="D66">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67">
+        <v>0.125</v>
+      </c>
+      <c r="D67">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68">
+        <v>0.2</v>
+      </c>
+      <c r="D68">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
         <v>43</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D64">
-        <v>0.62</v>
+      <c r="D70">
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2415,9 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2750,21 +2832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -2981,32 +3048,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3023,4 +3080,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF64233-CDB0-4E4F-9CB2-7082DA32CCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526AACB-95B8-4088-880C-82EBBAEA7594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
-    <sheet name="groups" sheetId="5" r:id="rId1"/>
-    <sheet name="g2c" sheetId="1" r:id="rId2"/>
-    <sheet name="c2t" sheetId="2" r:id="rId3"/>
-    <sheet name="treatments" sheetId="3" r:id="rId4"/>
+    <sheet name="curves" sheetId="6" r:id="rId1"/>
+    <sheet name="groups" sheetId="5" r:id="rId2"/>
+    <sheet name="g2c" sheetId="1" r:id="rId3"/>
+    <sheet name="c2t" sheetId="2" r:id="rId4"/>
+    <sheet name="treatments" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
   <si>
     <t>General population</t>
   </si>
@@ -216,6 +217,18 @@
   </si>
   <si>
     <t>Psychosis</t>
+  </si>
+  <si>
+    <t>Sudden shock</t>
+  </si>
+  <si>
+    <t>Shallow mid-term</t>
+  </si>
+  <si>
+    <t>Sustained impact</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -580,10 +593,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFF802-C4B0-4A2E-AEB8-42306206B753}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="C4">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="C5">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.2041</v>
+      </c>
+      <c r="C6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1633</v>
+      </c>
+      <c r="C7">
+        <v>0.1188</v>
+      </c>
+      <c r="D7">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.1206</v>
+      </c>
+      <c r="D8">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.1069</v>
+      </c>
+      <c r="D9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>7.22E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4.87E-2</v>
+      </c>
+      <c r="D13">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E13">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="E15">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.43E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D24">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E24">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2794AB8-A2FA-4898-8B2A-2A83645A0C40}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -836,7 +1294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA8F3A-40A9-4BA2-90D8-EC2D921A3DDC}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -1497,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
   <dimension ref="A1:D70"/>
   <sheetViews>
@@ -2495,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -2832,6 +3290,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -3048,7 +3512,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3057,13 +3521,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3082,27 +3557,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526AACB-95B8-4088-880C-82EBBAEA7594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120B57D-6888-4A01-86A4-81B790866A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Suicide/ideation</t>
   </si>
   <si>
-    <t>Self-harm</t>
-  </si>
-  <si>
     <t>Substance misuse</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>PTSD</t>
   </si>
   <si>
-    <t>Neurological symptom disorder (ADHD / Aspergers)</t>
-  </si>
-  <si>
     <t>Students FE &amp; HE</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>Insomnia</t>
   </si>
   <si>
-    <t>Pre-existing LTC</t>
-  </si>
-  <si>
-    <t>Pre-existing SMI</t>
-  </si>
-  <si>
     <t>Newly unemployed</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Complicated grief</t>
   </si>
   <si>
-    <t>Pre-existing CMH illness</t>
-  </si>
-  <si>
     <t>Pregnant &amp; New Mothers</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Domestic abuse victims</t>
   </si>
   <si>
-    <t>Family of COVID-deceased</t>
-  </si>
-  <si>
     <t>pcnt</t>
   </si>
   <si>
@@ -222,13 +204,31 @@
     <t>Sudden shock</t>
   </si>
   <si>
-    <t>Shallow mid-term</t>
-  </si>
-  <si>
     <t>Sustained impact</t>
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Self harm</t>
+  </si>
+  <si>
+    <t>Family of COVID deceased</t>
+  </si>
+  <si>
+    <t>Pre existing CMH illness</t>
+  </si>
+  <si>
+    <t>Pre existing LTC</t>
+  </si>
+  <si>
+    <t>Pre existing SMI</t>
+  </si>
+  <si>
+    <t>Shallow mid term</t>
+  </si>
+  <si>
+    <t>Neurological symptom disorder (ADHD/Aspergers)</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFF802-C4B0-4A2E-AEB8-42306206B753}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,19 +609,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,24 +1053,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>116654</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>1956</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>46105</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>4030</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>425</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>143087</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>16749</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>85</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1683</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1097</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>141371</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>29902</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>176849</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>6408</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>5621</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>80575</v>
@@ -1298,7 +1298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA8F3A-40A9-4BA2-90D8-EC2D921A3DDC}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1309,18 +1311,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1342,10 +1344,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2">
         <v>6.4000000000000003E-3</v>
@@ -1353,10 +1355,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>0.1</v>
@@ -1364,10 +1366,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
         <v>0.02</v>
@@ -1375,10 +1377,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>6.6666666669999999E-2</v>
@@ -1386,7 +1388,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1397,10 +1399,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>0.21266666670000001</v>
@@ -1408,10 +1410,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>4.5666666669999995E-2</v>
@@ -1419,7 +1421,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1430,7 +1432,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1441,7 +1443,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1452,10 +1454,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1463,7 +1465,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1474,10 +1476,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>2.3333333330000001E-2</v>
@@ -1485,10 +1487,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1496,7 +1498,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1507,7 +1509,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1518,10 +1520,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>6.6666666669999999E-2</v>
@@ -1529,10 +1531,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>0.20333333329999997</v>
@@ -1540,7 +1542,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1587,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>1.666666667E-2</v>
@@ -1598,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>2.7000000000000003E-2</v>
@@ -1609,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <v>2.5666666669999998E-2</v>
@@ -1628,7 +1630,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1639,7 +1641,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1650,10 +1652,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
         <v>0.11333333330000001</v>
@@ -1661,10 +1663,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>3.3333333329999999E-2</v>
@@ -1672,7 +1674,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1683,7 +1685,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1694,10 +1696,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <v>6.6666666669999999E-2</v>
@@ -1705,10 +1707,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>0.20333333329999997</v>
@@ -1716,7 +1718,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -1727,10 +1729,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>6.6666666669999999E-2</v>
@@ -1738,7 +1740,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -1760,10 +1762,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -1771,10 +1773,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
         <v>2.8888888889999999E-2</v>
@@ -1782,7 +1784,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -1793,7 +1795,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1804,7 +1806,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1815,10 +1817,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1826,10 +1828,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
         <v>3.3333333329999999E-2</v>
@@ -1837,7 +1839,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1848,7 +1850,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1859,10 +1861,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2">
         <v>0.05</v>
@@ -1870,7 +1872,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1881,10 +1883,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>0.1</v>
@@ -1892,10 +1894,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2">
         <v>8.3333333330000009E-2</v>
@@ -1903,7 +1905,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1914,7 +1916,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -1925,10 +1927,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2">
         <v>0.03</v>
@@ -1936,10 +1938,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -1959,7 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1969,16 +1973,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -2000,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -2014,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -2028,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0.15</v>
@@ -2039,10 +2043,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2056,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0.13513513513513514</v>
@@ -2070,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0.27027027027027029</v>
@@ -2084,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0.27027027027027029</v>
@@ -2098,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>0.10810810810810811</v>
@@ -2112,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0.21621621621621623</v>
@@ -2123,10 +2127,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>0.43749999999999994</v>
@@ -2137,10 +2141,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -2151,10 +2155,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0.3125</v>
@@ -2165,10 +2169,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>8.5714285714285701E-2</v>
@@ -2179,10 +2183,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>0.22857142857142856</v>
@@ -2193,10 +2197,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>0.22857142857142856</v>
@@ -2207,10 +2211,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>0.22857142857142856</v>
@@ -2221,10 +2225,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>0.22857142857142856</v>
@@ -2238,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5.2631578947368425E-2</v>
@@ -2252,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>0.2105263157894737</v>
@@ -2266,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>0.2105263157894737</v>
@@ -2280,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0.10526315789473685</v>
@@ -2294,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>0.4210526315789474</v>
@@ -2305,10 +2309,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>0.8</v>
@@ -2319,10 +2323,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>0.2</v>
@@ -2333,10 +2337,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>8.2644628099173556E-3</v>
@@ -2347,10 +2351,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>8.2644628099173556E-2</v>
@@ -2361,10 +2365,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>4.1322314049586778E-2</v>
@@ -2375,10 +2379,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>0.24793388429752067</v>
@@ -2389,10 +2393,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>0.57851239669421484</v>
@@ -2403,10 +2407,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>4.1322314049586778E-2</v>
@@ -2417,10 +2421,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>0.11764705882352942</v>
@@ -2431,10 +2435,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>0.11764705882352942</v>
@@ -2445,10 +2449,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0.29411764705882354</v>
@@ -2459,10 +2463,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>0.23529411764705885</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>0.11764705882352942</v>
@@ -2487,10 +2491,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>0.11764705882352942</v>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>0.15384615384615385</v>
@@ -2515,10 +2519,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>0.11538461538461538</v>
@@ -2529,10 +2533,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>0.30769230769230771</v>
@@ -2543,10 +2547,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>0.11538461538461538</v>
@@ -2557,10 +2561,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>0.30769230769230771</v>
@@ -2571,10 +2575,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>0.13636363636363635</v>
@@ -2585,10 +2589,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>0.13636363636363635</v>
@@ -2599,10 +2603,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>4.5454545454545456E-2</v>
@@ -2613,10 +2617,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>0.13636363636363635</v>
@@ -2627,10 +2631,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>0.36363636363636365</v>
@@ -2641,10 +2645,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>9.0909090909090912E-2</v>
@@ -2655,10 +2659,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>9.0909090909090912E-2</v>
@@ -2669,10 +2673,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>0.24242424242424246</v>
@@ -2683,10 +2687,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>0.21212121212121213</v>
@@ -2697,10 +2701,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>0.12121212121212123</v>
@@ -2711,10 +2715,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2725,10 +2729,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>0.21212121212121213</v>
@@ -2739,10 +2743,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C56">
         <v>0.21212121212121213</v>
@@ -2753,10 +2757,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>0.3174603174603175</v>
@@ -2767,10 +2771,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>9.5238095238095247E-2</v>
@@ -2781,10 +2785,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C59">
         <v>0.22222222222222224</v>
@@ -2795,10 +2799,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>1.5873015873015876E-2</v>
@@ -2809,10 +2813,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>9.5238095238095247E-2</v>
@@ -2823,10 +2827,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>0.15873015873015875</v>
@@ -2837,10 +2841,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>9.5238095238095247E-2</v>
@@ -2854,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>0.1</v>
@@ -2868,7 +2872,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>0.1</v>
@@ -2882,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>0.125</v>
@@ -2896,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>0.125</v>
@@ -2910,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>0.2</v>
@@ -2924,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>0.17499999999999999</v>
@@ -2938,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>0.17499999999999999</v>
@@ -2968,24 +2972,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3002,7 +3006,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>0.21052631599999999</v>
@@ -3019,7 +3023,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>0.41666666699999999</v>
@@ -3036,7 +3040,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>0.485714286</v>
@@ -3053,7 +3057,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>0.22415575500000001</v>
@@ -3070,7 +3074,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>0.485714286</v>
@@ -3087,7 +3091,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>0.21052631599999999</v>
@@ -3104,7 +3108,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>0.157571773</v>
@@ -3121,7 +3125,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>0.27272727299999999</v>
@@ -3141,7 +3145,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>0.26666666700000002</v>
@@ -3161,7 +3165,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>0.31069958800000003</v>
@@ -3181,7 +3185,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.44892996099999999</v>
@@ -3198,7 +3202,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>0.41666666699999999</v>
@@ -3215,7 +3219,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>0.46875</v>
@@ -3232,7 +3236,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>0.21052631599999999</v>
@@ -3249,7 +3253,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>0.36363636399999999</v>
@@ -3266,7 +3270,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>0.4</v>
@@ -3296,6 +3300,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -3512,15 +3525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
   <ds:schemaRefs>
@@ -3539,6 +3543,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3555,12 +3567,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120B57D-6888-4A01-86A4-81B790866A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46DB232-AEC9-4625-8694-2CAC6B02824D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2794AB8-A2FA-4898-8B2A-2A83645A0C40}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1076,7 +1076,7 @@
         <v>116654</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>46105</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>4030</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>425</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>143087</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>16749</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>1683</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>1097</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>141371</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>29902</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>176849</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>6408</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>5621</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>80575</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3294,21 +3294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -3525,32 +3510,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3567,4 +3542,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46DB232-AEC9-4625-8694-2CAC6B02824D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DA4D3-3B7A-4BE0-A531-9E24019BF7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="71">
   <si>
     <t>General population</t>
   </si>
@@ -162,9 +162,6 @@
     <t>999/111</t>
   </si>
   <si>
-    <t>Primary Care</t>
-  </si>
-  <si>
     <t>Aspergers</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Postnatal Depression</t>
   </si>
   <si>
-    <t>PICU</t>
-  </si>
-  <si>
     <t>Bereavement Services</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Follow the curve</t>
   </si>
   <si>
-    <t>Psychosis</t>
-  </si>
-  <si>
     <t>Sudden shock</t>
   </si>
   <si>
@@ -229,6 +220,36 @@
   </si>
   <si>
     <t>Neurological symptom disorder (ADHD/Aspergers)</t>
+  </si>
+  <si>
+    <t>Anxiety (CYP)</t>
+  </si>
+  <si>
+    <t>Depression (CYP)</t>
+  </si>
+  <si>
+    <t>PTSD (CYP)</t>
+  </si>
+  <si>
+    <t>Self harm (CYP)</t>
+  </si>
+  <si>
+    <t>Stress and Distress (CYP)</t>
+  </si>
+  <si>
+    <t>CAMHS</t>
+  </si>
+  <si>
+    <t>Student Health Psychology</t>
+  </si>
+  <si>
+    <t>Increased acuity (SMI)</t>
+  </si>
+  <si>
+    <t>Anxiety (Students)</t>
+  </si>
+  <si>
+    <t>Depression (Students)</t>
   </si>
 </sst>
 </file>
@@ -274,12 +295,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,19 +629,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2794AB8-A2FA-4898-8B2A-2A83645A0C40}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1056,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1070,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>116654</v>
@@ -1084,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1956</v>
@@ -1098,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>46105</v>
@@ -1109,10 +1129,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>4030</v>
@@ -1123,10 +1143,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>425</v>
@@ -1140,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>143087</v>
@@ -1154,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>16749</v>
@@ -1168,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>137</v>
@@ -1182,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1683</v>
@@ -1196,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1097</v>
@@ -1210,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>141371</v>
@@ -1221,10 +1241,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>29902</v>
@@ -1235,10 +1255,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>176849</v>
@@ -1249,10 +1269,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>6408</v>
@@ -1266,7 +1286,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>5621</v>
@@ -1280,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>80575</v>
@@ -1296,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA8F3A-40A9-4BA2-90D8-EC2D921A3DDC}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>0.12</v>
@@ -1336,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>3.666666667E-2</v>
@@ -1347,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>6.4000000000000003E-3</v>
@@ -1358,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2">
         <v>0.1</v>
@@ -1369,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
         <v>0.02</v>
@@ -1380,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>6.6666666669999999E-2</v>
@@ -1476,7 +1496,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1487,7 +1507,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1498,7 +1518,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1509,7 +1529,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1520,7 +1540,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1531,7 +1551,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -1542,7 +1562,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1589,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
         <v>1.666666667E-2</v>
@@ -1828,7 +1848,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1839,7 +1859,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1850,7 +1870,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1861,10 +1881,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2">
         <v>0.05</v>
@@ -1875,32 +1895,32 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2">
-        <v>8.3333333330000009E-2</v>
+        <v>0.26666666666000005</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2">
-        <v>0.1</v>
+        <v>8.3333333330000009E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2">
-        <v>8.3333333330000009E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2">
-        <v>8.3333333330000009E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,38 +1939,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C58">
-    <sortCondition ref="A2:A58"/>
-    <sortCondition ref="B2:B58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
+    <sortCondition ref="A2:A56"/>
+    <sortCondition ref="B2:B56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1959,16 +1957,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1982,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2077,7 +2075,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>0.27027027027027029</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="D8">
         <v>0.71</v>
@@ -2119,7 +2117,7 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0.21621621621621623</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="D11">
         <v>0.91</v>
@@ -2130,13 +2128,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>0.43749999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,13 +2142,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.32812499999999994</v>
       </c>
       <c r="D13">
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,38 +2156,38 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="D14">
-        <v>0.05</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>8.5714285714285701E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16">
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
       <c r="D16">
         <v>0.71</v>
@@ -2197,69 +2195,69 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>0.22857142857142856</v>
+        <v>0.26249999999999996</v>
       </c>
       <c r="D17">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.22857142857142856</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D18">
-        <v>0.84</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>0.22857142857142856</v>
+        <v>0.1875</v>
       </c>
       <c r="D19">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>5.2631578947368425E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21">
-        <v>0.2105263157894737</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
         <v>0.71</v>
@@ -2267,13 +2265,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22">
-        <v>0.2105263157894737</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
         <v>0.99</v>
@@ -2281,13 +2279,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0.10526315789473685</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
         <v>0.84</v>
@@ -2295,13 +2293,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>0.4210526315789474</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
         <v>0.91</v>
@@ -2309,198 +2307,198 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="D25">
-        <v>0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="D26">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>8.2644628099173556E-3</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>8.2644628099173556E-2</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="D28">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>4.1322314049586778E-2</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C30">
-        <v>0.24793388429752067</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>0.57851239669421484</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="D31">
-        <v>0.23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>8.2644628099173556E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>0.24793388429752067</v>
+      </c>
+      <c r="D34">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.57851239669421484</v>
+      </c>
+      <c r="D35">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>4.1322314049586778E-2</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>0.11764705882352942</v>
-      </c>
-      <c r="D33">
+      <c r="C38">
+        <v>0.11538461538461538</v>
+      </c>
+      <c r="D38">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>0.11764705882352942</v>
-      </c>
-      <c r="D34">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="D35">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>0.23529411764705885</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>0.11764705882352942</v>
-      </c>
-      <c r="D37">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>0.11764705882352942</v>
-      </c>
-      <c r="D38">
-        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,13 +2506,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,13 +2520,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>0.11538461538461538</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,139 +2534,139 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>0.30769230769230771</v>
       </c>
       <c r="D41">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>0.11538461538461538</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>0.30769230769230771</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D43">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>0.13636363636363635</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>0.13636363636363635</v>
       </c>
       <c r="D45">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>4.5454545454545456E-2</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D46">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>0.13636363636363635</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D47">
-        <v>0.56999999999999995</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>0.36363636363636365</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D48">
-        <v>0.93</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>9.0909090909090912E-2</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D49">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>9.0909090909090912E-2</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="D50">
-        <v>0.28999999999999998</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,13 +2674,13 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>0.24242424242424246</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,69 +2688,69 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>0.21212121212121213</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="D52">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>0.12121212121212123</v>
+        <v>0.3174603174603175</v>
       </c>
       <c r="D53">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D54">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C55">
-        <v>0.21212121212121213</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="D55">
-        <v>0.05</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>0.21212121212121213</v>
+        <v>1.5873015873015876E-2</v>
       </c>
       <c r="D56">
-        <v>0.28999999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,13 +2758,13 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>0.3174603174603175</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D57">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>9.5238095238095247E-2</v>
+        <v>0.15873015873015875</v>
       </c>
       <c r="D58">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,69 +2786,69 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>0.22222222222222224</v>
+        <v>9.5238095238095247E-2</v>
       </c>
       <c r="D59">
-        <v>0.89</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C60">
-        <v>1.5873015873015876E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C61">
-        <v>9.5238095238095247E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D61">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>0.15873015873015875</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D62">
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63">
-        <v>9.5238095238095247E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D63">
-        <v>0.28999999999999998</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,13 +2856,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>0.1</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,83 +2870,293 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D65">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>0.125</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="D67">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>0.2</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="D68">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>0.17499999999999999</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D69">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>0.17499999999999999</v>
+        <v>0.11538461538461538</v>
       </c>
       <c r="D70">
-        <v>0.28999999999999998</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="D71">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D74">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D76">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <v>0.2</v>
+      </c>
+      <c r="D77">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>0.05</v>
+      </c>
+      <c r="D78">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>0.6</v>
+      </c>
+      <c r="D79">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>0.15</v>
+      </c>
+      <c r="D80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="D82">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="D83">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D84">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D85">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -2959,18 +3167,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2984,10 +3192,10 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3004,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3021,7 +3229,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3038,9 +3246,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>0.485714286</v>
@@ -3055,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3072,9 +3280,9 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>0.485714286</v>
@@ -3089,9 +3297,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>0.21052631599999999</v>
@@ -3106,12 +3314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
-        <v>0.157571773</v>
+        <v>0.22415575500000001</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3120,126 +3328,126 @@
         <v>0.5</v>
       </c>
       <c r="E9">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.157571773</v>
+      </c>
+      <c r="C10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.27272727299999999</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0.5</v>
       </c>
       <c r="E10">
-        <v>1.67</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
-        <v>0.26666666700000002</v>
+        <v>0.27272727299999999</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.67</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>0.31069958800000003</v>
+        <v>0.26666666700000002</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.63</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>0.44892996099999999</v>
+        <v>0.31069958800000003</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>0.5</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0.41666666699999999</v>
+        <v>0.44892996099999999</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <v>0.5</v>
       </c>
       <c r="E14">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>0.46875</v>
+        <v>0.41666666699999999</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>0.5</v>
       </c>
       <c r="E15">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>0.21052631599999999</v>
+        <v>0.46875</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3248,7 +3456,7 @@
         <v>0.5</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,10 +3478,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
-        <v>0.4</v>
+        <v>0.22415575500000001</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3282,18 +3490,38 @@
         <v>0.5</v>
       </c>
       <c r="E18">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
         <v>1.1100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="A7"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -3510,7 +3738,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3519,13 +3747,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3544,27 +3783,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DA4D3-3B7A-4BE0-A531-9E24019BF7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163FAF0-F9F5-4792-AE78-1DB097B8039E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
@@ -1959,7 +1959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2890,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0.71</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,7 +2920,7 @@
         <v>0.86486486486486491</v>
       </c>
       <c r="D68">
-        <v>0.46</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,7 +2962,7 @@
         <v>0.73076923076923073</v>
       </c>
       <c r="D71">
-        <v>0.71</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,7 +3172,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3321,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="1">
-        <v>0.22415575500000001</v>
+        <v>0.623</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3516,12 +3518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F00E7D3C5223B647BCF0704F4FD63FF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="274554e3832af7cc9064f5d6743782b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3b4031e-841f-46f6-bede-a60d28c4ce79" xmlns:ns3="25f82bdf-59aa-449e-b461-28a7236b0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2c96c06903633a0219cb8332eecd029" ns2:_="" ns3:_="">
     <xsd:import namespace="c3b4031e-841f-46f6-bede-a60d28c4ce79"/>
@@ -3738,6 +3734,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3748,23 +3750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8936A6-10D5-4CB1-A985-45E67CE71791}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3783,6 +3768,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DA4D3-3B7A-4BE0-A531-9E24019BF7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231637B-CC7B-4914-B58A-319CDABC9257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="72">
   <si>
     <t>General population</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Depression (Students)</t>
+  </si>
+  <si>
+    <t>split</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1969,8 @@
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,7 +1981,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>47</v>
@@ -1991,7 +1995,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0.71</v>
@@ -2005,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0.99</v>
@@ -2019,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0.91</v>
@@ -2033,7 +2037,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0.05</v>
@@ -2041,615 +2045,615 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.13513513513513514</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>0.24324324324324326</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>0.27027027027027029</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>0.10810810810810811</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>0.24324324324324326</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>0.32812499999999994</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0.1875</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>0.56999999999999995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>0.234375</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>0.26249999999999996</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C18">
-        <v>0.15000000000000002</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>0.56999999999999995</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>0.1875</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>0.28999999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>0.22222222222222224</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>0.22222222222222224</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>0.99</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>0.11111111111111112</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>0.44444444444444448</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>0.05</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>8.2644628099173556E-3</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>8.2644628099173556E-2</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>4.1322314049586778E-2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>0.24793388429752067</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>0.57851239669421484</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.23</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>4.1322314049586778E-2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.05</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>0.15384615384615385</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>0.11538461538461538</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>0.30769230769230771</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>0.11538461538461538</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>0.30769230769230771</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>0.13636363636363635</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>0.13636363636363635</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>4.5454545454545456E-2</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>0.13636363636363635</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>0.36363636363636365</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>9.0909090909090912E-2</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C48">
-        <v>9.0909090909090912E-2</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49">
-        <v>0.30769230769230771</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2657,251 +2661,251 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0.26923076923076922</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>0.15384615384615385</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C52">
-        <v>0.26923076923076922</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <v>0.3174603174603175</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>9.5238095238095247E-2</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C55">
-        <v>0.22222222222222224</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>1.5873015873015876E-2</v>
+        <v>73</v>
       </c>
       <c r="D56">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>9.5238095238095247E-2</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>0.15873015873015875</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>0.56999999999999995</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59">
-        <v>9.5238095238095247E-2</v>
-      </c>
       <c r="D59">
-        <v>0.28999999999999998</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
-        <v>0.1</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C61">
-        <v>0.22500000000000001</v>
+        <v>35</v>
       </c>
       <c r="D61">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
-        <v>0.17499999999999999</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>0.93</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C64">
-        <v>0.22500000000000001</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>7.4999999999999997E-2</v>
+        <v>50</v>
       </c>
       <c r="D65">
-        <v>0.28999999999999998</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D66">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C67">
-        <v>0.13513513513513514</v>
+        <v>30</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2909,257 +2913,261 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>0.86486486486486491</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C69">
-        <v>0.15384615384615385</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C70">
-        <v>0.11538461538461538</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>0.73076923076923073</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C72">
-        <v>0.13636363636363635</v>
+        <v>69</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C74">
-        <v>0.36363636363636365</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75">
-        <v>0.30769230769230771</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>0.69230769230769229</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C78">
-        <v>0.05</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>0.99</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C79">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>0.91</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>0.15</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C81">
-        <v>0.13513513513513514</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C82">
-        <v>0.27027027027027029</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C83">
-        <v>0.27027027027027029</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84">
-        <v>0.10810810810810811</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>0.21621621621621623</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>0.91</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
+    <sortCondition ref="A2:A85"/>
+    <sortCondition ref="B2:B85"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231637B-CC7B-4914-B58A-319CDABC9257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6B5C5-4A53-4AE4-B916-720CE006FD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -1962,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B041FEA-7504-47C5-AC33-EE86F088EA46}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,7 +3327,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="1">
-        <v>0.22415575500000001</v>
+        <v>0.623</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3524,9 +3524,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3747,27 +3750,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3792,9 +3783,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6B5C5-4A53-4AE4-B916-720CE006FD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF354D4-CF1F-4117-B9C3-3C6C1250A6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -619,7 +619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFF802-C4B0-4A2E-AEB8-42306206B753}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1319,11 +1321,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA8F3A-40A9-4BA2-90D8-EC2D921A3DDC}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1332,7 +1332,7 @@
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1353,8 +1353,9 @@
       <c r="C2" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1364,8 +1365,9 @@
       <c r="C3" s="2">
         <v>3.666666667E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1375,8 +1377,9 @@
       <c r="C4" s="2">
         <v>6.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1386,8 +1389,9 @@
       <c r="C5" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1397,8 +1401,9 @@
       <c r="C6" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1408,8 +1413,9 @@
       <c r="C7" s="2">
         <v>6.6666666669999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1419,8 +1425,9 @@
       <c r="C8" s="2">
         <v>0.15866666670000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1430,8 +1437,9 @@
       <c r="C9" s="2">
         <v>0.21266666670000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1441,8 +1449,9 @@
       <c r="C10" s="2">
         <v>4.5666666669999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1452,8 +1461,9 @@
       <c r="C11" s="2">
         <v>5.966666667E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1463,8 +1473,9 @@
       <c r="C12" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1474,8 +1485,9 @@
       <c r="C13" s="2">
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1485,8 +1497,9 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1496,8 +1509,9 @@
       <c r="C15" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1507,8 +1521,9 @@
       <c r="C16" s="2">
         <v>2.3333333330000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1518,8 +1533,9 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1529,8 +1545,9 @@
       <c r="C18" s="2">
         <v>0.16666666670000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1540,8 +1557,9 @@
       <c r="C19" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1551,8 +1569,9 @@
       <c r="C20" s="2">
         <v>6.6666666669999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1562,8 +1581,9 @@
       <c r="C21" s="2">
         <v>0.20333333329999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1573,8 +1593,9 @@
       <c r="C22" s="2">
         <v>3.6666666700000002E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1584,8 +1605,9 @@
       <c r="C23" s="2">
         <v>9.3333333330000004E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1617,9 @@
       <c r="C24" s="2">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1606,8 +1629,9 @@
       <c r="C25" s="2">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1641,9 @@
       <c r="C26" s="2">
         <v>1.666666667E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1628,8 +1653,9 @@
       <c r="C27" s="2">
         <v>2.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1665,9 @@
       <c r="C28" s="2">
         <v>2.5666666669999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1650,8 +1677,9 @@
       <c r="C29" s="2">
         <v>3.3333333299999999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1661,8 +1689,9 @@
       <c r="C30" s="2">
         <v>0.14866666670000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1672,8 +1701,9 @@
       <c r="C31" s="2">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1683,8 +1713,9 @@
       <c r="C32" s="2">
         <v>0.11333333330000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1694,8 +1725,9 @@
       <c r="C33" s="2">
         <v>3.3333333329999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1705,8 +1737,9 @@
       <c r="C34" s="2">
         <v>0.16666666670000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1716,8 +1749,9 @@
       <c r="C35" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1727,8 +1761,9 @@
       <c r="C36" s="2">
         <v>6.6666666669999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1738,8 +1773,9 @@
       <c r="C37" s="2">
         <v>0.20333333329999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1749,8 +1785,9 @@
       <c r="C38" s="2">
         <v>3.6666666700000002E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1760,8 +1797,9 @@
       <c r="C39" s="2">
         <v>6.6666666669999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1771,8 +1809,9 @@
       <c r="C40" s="2">
         <v>2.8888888889999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1782,8 +1821,9 @@
       <c r="C41" s="2">
         <v>2.8888888889999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1833,9 @@
       <c r="C42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1804,8 +1845,9 @@
       <c r="C43" s="2">
         <v>2.8888888889999999E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1815,8 +1857,9 @@
       <c r="C44" s="2">
         <v>3.666666667E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1826,8 +1869,9 @@
       <c r="C45" s="2">
         <v>3.666666667E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1837,8 +1881,9 @@
       <c r="C46" s="2">
         <v>3.666666667E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1848,8 +1893,9 @@
       <c r="C47" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1859,8 +1905,9 @@
       <c r="C48" s="2">
         <v>3.3333333329999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1870,8 +1917,9 @@
       <c r="C49" s="2">
         <v>0.1766666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1881,8 +1929,9 @@
       <c r="C50" s="2">
         <v>8.833333333E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1892,8 +1941,9 @@
       <c r="C51" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1903,8 +1953,9 @@
       <c r="C52" s="2">
         <v>0.26666666666000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1914,8 +1965,9 @@
       <c r="C53" s="2">
         <v>8.3333333330000009E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1925,8 +1977,9 @@
       <c r="C54" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1936,8 +1989,9 @@
       <c r="C55" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1947,6 +2001,7 @@
       <c r="C56" s="2">
         <v>0</v>
       </c>
+      <c r="D56" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
@@ -1969,8 +2024,6 @@
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.71</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2149,7 +2202,7 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="D13">
         <v>0.71</v>
@@ -2163,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="D14">
         <v>0.99</v>
@@ -2177,7 +2230,7 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>0.84</v>
@@ -2191,7 +2244,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="D16">
         <v>0.91</v>
@@ -2205,7 +2258,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2219,10 +2272,10 @@
         <v>66</v>
       </c>
       <c r="C18">
-        <v>86</v>
+        <v>865</v>
       </c>
       <c r="D18">
-        <v>0.46</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,7 +2286,7 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2247,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="D20">
         <v>0.99</v>
@@ -2261,7 +2314,7 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>0.84</v>
@@ -2275,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="D22">
         <v>0.91</v>
@@ -2289,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="D23">
         <v>0.71</v>
@@ -2303,7 +2356,7 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D24">
         <v>0.71</v>
@@ -2317,7 +2370,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="D25">
         <v>0.84</v>
@@ -2331,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D26">
         <v>0.56999999999999995</v>
@@ -2345,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="D27">
         <v>0.05</v>
@@ -2485,7 +2538,7 @@
         <v>28</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="D37">
         <v>0.71</v>
@@ -2499,7 +2552,7 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="D38">
         <v>0.99</v>
@@ -2513,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>0.84</v>
@@ -2527,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="D40">
         <v>0.91</v>
@@ -2653,7 +2706,7 @@
         <v>40</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2667,7 +2720,7 @@
         <v>34</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2681,7 +2734,7 @@
         <v>27</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="D51">
         <v>0.47</v>
@@ -2695,7 +2748,7 @@
         <v>28</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D52">
         <v>0.71</v>
@@ -2709,7 +2762,7 @@
         <v>29</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="D53">
         <v>0.91</v>
@@ -2723,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2737,7 +2790,7 @@
         <v>34</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2751,10 +2804,10 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>73</v>
+        <v>730</v>
       </c>
       <c r="D56">
-        <v>0.71</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,7 +2818,7 @@
         <v>34</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2779,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D58">
         <v>0.71</v>
@@ -2793,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>0.84</v>
@@ -2807,7 +2860,7 @@
         <v>35</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D60">
         <v>0.56999999999999995</v>
@@ -2821,7 +2874,7 @@
         <v>36</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="D61">
         <v>0.93</v>
@@ -2835,7 +2888,7 @@
         <v>31</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D62">
         <v>0.05</v>
@@ -2849,7 +2902,7 @@
         <v>37</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <v>0.28999999999999998</v>
@@ -2863,7 +2916,7 @@
         <v>34</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2877,7 +2930,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D65">
         <v>0.46</v>
@@ -2891,7 +2944,7 @@
         <v>36</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="D66">
         <v>0.93</v>
@@ -2905,7 +2958,7 @@
         <v>40</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2919,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="D68">
         <v>0.84</v>
@@ -2933,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D69">
         <v>0.91</v>
@@ -2947,7 +3000,7 @@
         <v>31</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="D70">
         <v>0.05</v>
@@ -2961,7 +3014,7 @@
         <v>40</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2975,7 +3028,7 @@
         <v>66</v>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>692</v>
       </c>
       <c r="D72">
         <v>0.46</v>
@@ -2989,7 +3042,7 @@
         <v>27</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="D73">
         <v>0.47</v>
@@ -3003,7 +3056,7 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D74">
         <v>0.71</v>
@@ -3017,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="D75">
         <v>0.89</v>
@@ -3031,7 +3084,7 @@
         <v>30</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>0.99</v>
@@ -3045,7 +3098,7 @@
         <v>32</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D77">
         <v>0.84</v>
@@ -3059,7 +3112,7 @@
         <v>35</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="D78">
         <v>0.56999999999999995</v>
@@ -3073,7 +3126,7 @@
         <v>37</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <v>0.28999999999999998</v>
@@ -3177,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,12 +3577,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3750,15 +3800,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3783,18 +3845,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF354D4-CF1F-4117-B9C3-3C6C1250A6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D6A7B-4AC4-4163-8FDB-C9FFA5B313B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFF802-C4B0-4A2E-AEB8-42306206B753}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3230,9 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3542,7 +3540,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="1">
-        <v>0.22415575500000001</v>
+        <v>0.623</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3577,9 +3575,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3800,27 +3801,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3845,9 +3834,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A1C96F-6EFB-4028-BCE1-ECC515F0B18C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E7D15A-7770-4D3B-91AE-A46500598E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="60b7aa15-f80a-4fdd-839c-f4bbc2217594"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af42b274-6a0d-4eb8-b3e5-ec8ba19bd91a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.jemmett\dev\R\active_projects\723_mh_covid_surge_modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D6A7B-4AC4-4163-8FDB-C9FFA5B313B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0786A-2090-4F50-A169-35B25B4922C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="5" xr2:uid="{F50B436A-7669-4109-9972-A64F78759D89}"/>
   </bookViews>
   <sheets>
     <sheet name="curves" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="g2c" sheetId="1" r:id="rId3"/>
     <sheet name="c2t" sheetId="2" r:id="rId4"/>
     <sheet name="treatments" sheetId="3" r:id="rId5"/>
+    <sheet name="demand" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="75">
   <si>
     <t>General population</t>
   </si>
@@ -254,6 +255,15 @@
   <si>
     <t>split</t>
   </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>underlying</t>
+  </si>
+  <si>
+    <t>suppressed</t>
+  </si>
 </sst>
 </file>
 
@@ -298,11 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3230,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD7C2-90E2-4A03-AE81-9931C4408294}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3570,6 +3581,6090 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CEFE45-F035-4542-9077-74E426809C84}">
+  <dimension ref="A1:D433"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C26">
+        <v>170</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C27">
+        <v>177</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C28">
+        <v>168</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C29">
+        <v>174</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C30">
+        <v>166</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C31">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C32">
+        <v>186</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C33">
+        <v>185</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C34">
+        <v>177</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C35">
+        <v>161</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C36">
+        <v>173</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C37">
+        <v>182</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C38">
+        <v>170</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C39">
+        <v>177</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C40">
+        <v>168</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C41">
+        <v>174</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C42">
+        <v>166</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C43">
+        <v>160</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C44">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C45">
+        <v>185</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C46">
+        <v>177</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C47">
+        <v>161</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C48">
+        <v>173</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C49">
+        <v>182</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C50">
+        <v>434</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C51">
+        <v>472</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C52">
+        <v>481</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C53">
+        <v>426</v>
+      </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C54">
+        <v>420</v>
+      </c>
+      <c r="D54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C55">
+        <v>414</v>
+      </c>
+      <c r="D55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C56">
+        <v>396</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C57">
+        <v>310</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C58">
+        <v>453</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C59">
+        <v>409</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C60">
+        <v>423</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C61">
+        <v>439</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C62">
+        <v>434</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C63">
+        <v>472</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C64">
+        <v>481</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C65">
+        <v>426</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C66">
+        <v>420</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C67">
+        <v>414</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C68">
+        <v>396</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C69">
+        <v>310</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C70">
+        <v>453</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C71">
+        <v>409</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C72">
+        <v>423</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C73">
+        <v>439</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C82">
+        <v>87</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C89">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C92">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C93">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C94">
+        <v>87</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C96">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C98">
+        <v>1169</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C99">
+        <v>1014</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C100">
+        <v>1183</v>
+      </c>
+      <c r="D100">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C101">
+        <v>1012</v>
+      </c>
+      <c r="D101">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C102">
+        <v>1091</v>
+      </c>
+      <c r="D102">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C103">
+        <v>1243</v>
+      </c>
+      <c r="D103">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C104">
+        <v>1199</v>
+      </c>
+      <c r="D104">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C105">
+        <v>879</v>
+      </c>
+      <c r="D105">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C106">
+        <v>1160</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C107">
+        <v>1086</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C108">
+        <v>1093</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C109">
+        <v>984</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C110">
+        <v>1169</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C111">
+        <v>1014</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C112">
+        <v>1183</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C113">
+        <v>1012</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C114">
+        <v>1091</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C115">
+        <v>1243</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C116">
+        <v>1199</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C117">
+        <v>879</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C118">
+        <v>1160</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C119">
+        <v>1086</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C120">
+        <v>1093</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C121">
+        <v>984</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C122">
+        <v>28</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C123">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C124">
+        <v>80</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C125">
+        <v>84</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C126">
+        <v>85</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C127">
+        <v>70</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C128">
+        <v>85</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C129">
+        <v>86</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C130">
+        <v>80</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C131">
+        <v>75</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C132">
+        <v>63</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C133">
+        <v>72</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C134">
+        <v>28</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C135">
+        <v>52</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C136">
+        <v>80</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C137">
+        <v>84</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C138">
+        <v>85</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C139">
+        <v>70</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C140">
+        <v>85</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C141">
+        <v>86</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C142">
+        <v>80</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C143">
+        <v>75</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C144">
+        <v>63</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>41</v>
+      </c>
+      <c r="B145" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C145">
+        <v>72</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>66</v>
+      </c>
+      <c r="B188" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>38</v>
+      </c>
+      <c r="B194" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C194">
+        <v>609</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C195">
+        <v>599</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>38</v>
+      </c>
+      <c r="B196" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C196">
+        <v>621</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C197">
+        <v>548</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C198">
+        <v>594</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C199">
+        <v>594</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>38</v>
+      </c>
+      <c r="B200" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C200">
+        <v>550</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C201">
+        <v>560</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C202">
+        <v>644</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>38</v>
+      </c>
+      <c r="B203" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C203">
+        <v>617</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C204">
+        <v>601</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C205">
+        <v>670</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>38</v>
+      </c>
+      <c r="B206" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C206">
+        <v>609</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>38</v>
+      </c>
+      <c r="B207" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C207">
+        <v>599</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>38</v>
+      </c>
+      <c r="B208" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C208">
+        <v>621</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>38</v>
+      </c>
+      <c r="B209" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C209">
+        <v>548</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>38</v>
+      </c>
+      <c r="B210" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C210">
+        <v>594</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C211">
+        <v>594</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>38</v>
+      </c>
+      <c r="B212" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C212">
+        <v>550</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C213">
+        <v>560</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>38</v>
+      </c>
+      <c r="B214" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C214">
+        <v>644</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C215">
+        <v>617</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C216">
+        <v>601</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C217">
+        <v>670</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>30</v>
+      </c>
+      <c r="B219" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>30</v>
+      </c>
+      <c r="B220" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>30</v>
+      </c>
+      <c r="B223" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>30</v>
+      </c>
+      <c r="B238" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>30</v>
+      </c>
+      <c r="B240" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>32</v>
+      </c>
+      <c r="B242" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C242">
+        <v>381</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C243">
+        <v>316</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C244">
+        <v>323</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>32</v>
+      </c>
+      <c r="B245" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C245">
+        <v>332</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C246">
+        <v>362</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>32</v>
+      </c>
+      <c r="B247" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C247">
+        <v>313</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C248">
+        <v>330</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>32</v>
+      </c>
+      <c r="B249" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C249">
+        <v>319</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>32</v>
+      </c>
+      <c r="B250" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C250">
+        <v>390</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C251">
+        <v>348</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>32</v>
+      </c>
+      <c r="B252" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C252">
+        <v>332</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>32</v>
+      </c>
+      <c r="B253" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C253">
+        <v>237</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C254">
+        <v>381</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C255">
+        <v>316</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C256">
+        <v>323</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C257">
+        <v>332</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C258">
+        <v>362</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C259">
+        <v>313</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C260">
+        <v>330</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C261">
+        <v>319</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C262">
+        <v>390</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C263">
+        <v>348</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C264">
+        <v>332</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>32</v>
+      </c>
+      <c r="B265" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C265">
+        <v>237</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>35</v>
+      </c>
+      <c r="B266" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C266">
+        <v>112</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>35</v>
+      </c>
+      <c r="B267" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C267">
+        <v>127</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C268">
+        <v>132</v>
+      </c>
+      <c r="D268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C269">
+        <v>137</v>
+      </c>
+      <c r="D269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C270">
+        <v>128</v>
+      </c>
+      <c r="D270">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>35</v>
+      </c>
+      <c r="B271" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C271">
+        <v>162</v>
+      </c>
+      <c r="D271">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C272">
+        <v>138</v>
+      </c>
+      <c r="D272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C273">
+        <v>107</v>
+      </c>
+      <c r="D273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>35</v>
+      </c>
+      <c r="B274" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C274">
+        <v>145</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>35</v>
+      </c>
+      <c r="B275" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C275">
+        <v>124</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>35</v>
+      </c>
+      <c r="B276" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C276">
+        <v>130</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>35</v>
+      </c>
+      <c r="B277" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C277">
+        <v>117</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>35</v>
+      </c>
+      <c r="B278" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C278">
+        <v>112</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>35</v>
+      </c>
+      <c r="B279" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C279">
+        <v>127</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>35</v>
+      </c>
+      <c r="B280" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C280">
+        <v>132</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>35</v>
+      </c>
+      <c r="B281" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C281">
+        <v>137</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>35</v>
+      </c>
+      <c r="B282" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C282">
+        <v>128</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>35</v>
+      </c>
+      <c r="B283" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C283">
+        <v>162</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>35</v>
+      </c>
+      <c r="B284" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C284">
+        <v>138</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>35</v>
+      </c>
+      <c r="B285" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C285">
+        <v>107</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>35</v>
+      </c>
+      <c r="B286" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C286">
+        <v>145</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>35</v>
+      </c>
+      <c r="B287" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C287">
+        <v>124</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>35</v>
+      </c>
+      <c r="B288" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C288">
+        <v>130</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C289">
+        <v>117</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C290">
+        <v>1973</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C291">
+        <v>1825</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C292">
+        <v>1938</v>
+      </c>
+      <c r="D292">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>29</v>
+      </c>
+      <c r="B293" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C293">
+        <v>1870</v>
+      </c>
+      <c r="D293">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>29</v>
+      </c>
+      <c r="B294" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C294">
+        <v>2089</v>
+      </c>
+      <c r="D294">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C295">
+        <v>2137</v>
+      </c>
+      <c r="D295">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>29</v>
+      </c>
+      <c r="B296" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C296">
+        <v>2063</v>
+      </c>
+      <c r="D296">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C297">
+        <v>1463</v>
+      </c>
+      <c r="D297">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C298">
+        <v>2313</v>
+      </c>
+      <c r="D298">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>29</v>
+      </c>
+      <c r="B299" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C299">
+        <v>1960</v>
+      </c>
+      <c r="D299">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>29</v>
+      </c>
+      <c r="B300" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C300">
+        <v>1485</v>
+      </c>
+      <c r="D300">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>29</v>
+      </c>
+      <c r="B301" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C301">
+        <v>1620</v>
+      </c>
+      <c r="D301">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>29</v>
+      </c>
+      <c r="B302" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C302">
+        <v>1973</v>
+      </c>
+      <c r="D302">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C303">
+        <v>1825</v>
+      </c>
+      <c r="D303">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C304">
+        <v>1938</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>29</v>
+      </c>
+      <c r="B305" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C305">
+        <v>1870</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>29</v>
+      </c>
+      <c r="B306" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C306">
+        <v>2089</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C307">
+        <v>2137</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C308">
+        <v>2063</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C309">
+        <v>1463</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C310">
+        <v>2313</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C311">
+        <v>1960</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C312">
+        <v>1485</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C313">
+        <v>1620</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>36</v>
+      </c>
+      <c r="B314" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C315">
+        <v>8</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C316">
+        <v>7</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>36</v>
+      </c>
+      <c r="B318" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>36</v>
+      </c>
+      <c r="B319" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>36</v>
+      </c>
+      <c r="B320" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C320">
+        <v>5</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>36</v>
+      </c>
+      <c r="B321" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>36</v>
+      </c>
+      <c r="B322" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C322">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>36</v>
+      </c>
+      <c r="B323" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>36</v>
+      </c>
+      <c r="B324" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C324">
+        <v>5</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>36</v>
+      </c>
+      <c r="B325" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C325">
+        <v>7</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>36</v>
+      </c>
+      <c r="B326" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>36</v>
+      </c>
+      <c r="B327" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C327">
+        <v>8</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>36</v>
+      </c>
+      <c r="B328" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C328">
+        <v>7</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>36</v>
+      </c>
+      <c r="B329" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>36</v>
+      </c>
+      <c r="B330" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>36</v>
+      </c>
+      <c r="B331" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>36</v>
+      </c>
+      <c r="B332" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C332">
+        <v>5</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>36</v>
+      </c>
+      <c r="B333" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>36</v>
+      </c>
+      <c r="B334" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C334">
+        <v>5</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>36</v>
+      </c>
+      <c r="B335" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C335">
+        <v>4</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>36</v>
+      </c>
+      <c r="B336" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C336">
+        <v>5</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>36</v>
+      </c>
+      <c r="B337" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C337">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>33</v>
+      </c>
+      <c r="B338" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C338">
+        <v>107</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>33</v>
+      </c>
+      <c r="B339" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C339">
+        <v>86</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C340">
+        <v>71</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>33</v>
+      </c>
+      <c r="B341" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C341">
+        <v>53</v>
+      </c>
+      <c r="D341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C342">
+        <v>62</v>
+      </c>
+      <c r="D342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C343">
+        <v>79</v>
+      </c>
+      <c r="D343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>33</v>
+      </c>
+      <c r="B344" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C344">
+        <v>56</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>33</v>
+      </c>
+      <c r="B345" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C345">
+        <v>66</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+      <c r="B346" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C346">
+        <v>44</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>33</v>
+      </c>
+      <c r="B347" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C347">
+        <v>71</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>33</v>
+      </c>
+      <c r="B348" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C348">
+        <v>70</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>33</v>
+      </c>
+      <c r="B349" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C349">
+        <v>73</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>33</v>
+      </c>
+      <c r="B350" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C350">
+        <v>107</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C351">
+        <v>86</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C352">
+        <v>71</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C353">
+        <v>53</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C354">
+        <v>62</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C355">
+        <v>79</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C356">
+        <v>56</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C357">
+        <v>66</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C358">
+        <v>44</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C359">
+        <v>71</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C360">
+        <v>70</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C361">
+        <v>73</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>31</v>
+      </c>
+      <c r="B362" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>31</v>
+      </c>
+      <c r="B363" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>31</v>
+      </c>
+      <c r="B364" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>31</v>
+      </c>
+      <c r="B365" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>31</v>
+      </c>
+      <c r="B366" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>31</v>
+      </c>
+      <c r="B367" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>31</v>
+      </c>
+      <c r="B368" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>31</v>
+      </c>
+      <c r="B369" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>31</v>
+      </c>
+      <c r="B370" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+      <c r="B371" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>31</v>
+      </c>
+      <c r="B372" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>31</v>
+      </c>
+      <c r="B374" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>31</v>
+      </c>
+      <c r="B376" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>31</v>
+      </c>
+      <c r="B378" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>31</v>
+      </c>
+      <c r="B379" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>31</v>
+      </c>
+      <c r="B380" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>31</v>
+      </c>
+      <c r="B381" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>31</v>
+      </c>
+      <c r="B382" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>31</v>
+      </c>
+      <c r="B383" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>31</v>
+      </c>
+      <c r="B384" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>31</v>
+      </c>
+      <c r="B385" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>67</v>
+      </c>
+      <c r="B386" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>67</v>
+      </c>
+      <c r="B387" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C387">
+        <v>5</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>67</v>
+      </c>
+      <c r="B388" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>67</v>
+      </c>
+      <c r="B389" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>67</v>
+      </c>
+      <c r="B390" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C390">
+        <v>9</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>67</v>
+      </c>
+      <c r="B391" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C391">
+        <v>9</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>67</v>
+      </c>
+      <c r="B392" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C392">
+        <v>6</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>67</v>
+      </c>
+      <c r="B393" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C393">
+        <v>16</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>67</v>
+      </c>
+      <c r="B394" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C394">
+        <v>6</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>67</v>
+      </c>
+      <c r="B395" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>67</v>
+      </c>
+      <c r="B396" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C396">
+        <v>7</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>67</v>
+      </c>
+      <c r="B397" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C397">
+        <v>11</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>67</v>
+      </c>
+      <c r="B398" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C398">
+        <v>7</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>67</v>
+      </c>
+      <c r="B399" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>67</v>
+      </c>
+      <c r="B400" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>67</v>
+      </c>
+      <c r="B401" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>67</v>
+      </c>
+      <c r="B402" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C402">
+        <v>9</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>67</v>
+      </c>
+      <c r="B403" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C403">
+        <v>9</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>67</v>
+      </c>
+      <c r="B404" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C404">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>67</v>
+      </c>
+      <c r="B405" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C405">
+        <v>16</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>67</v>
+      </c>
+      <c r="B406" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C406">
+        <v>6</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>67</v>
+      </c>
+      <c r="B407" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>67</v>
+      </c>
+      <c r="B408" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>67</v>
+      </c>
+      <c r="B409" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C409">
+        <v>11</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>37</v>
+      </c>
+      <c r="B410" s="4">
+        <v>43952</v>
+      </c>
+      <c r="C410">
+        <v>144</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>37</v>
+      </c>
+      <c r="B411" s="4">
+        <v>43983</v>
+      </c>
+      <c r="C411">
+        <v>169</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>37</v>
+      </c>
+      <c r="B412" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C412">
+        <v>197</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>37</v>
+      </c>
+      <c r="B413" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C413">
+        <v>166</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>37</v>
+      </c>
+      <c r="B414" s="4">
+        <v>44075</v>
+      </c>
+      <c r="C414">
+        <v>142</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>37</v>
+      </c>
+      <c r="B415" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C415">
+        <v>160</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>37</v>
+      </c>
+      <c r="B416" s="4">
+        <v>44136</v>
+      </c>
+      <c r="C416">
+        <v>163</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>37</v>
+      </c>
+      <c r="B417" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C417">
+        <v>197</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>37</v>
+      </c>
+      <c r="B418" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C418">
+        <v>180</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>37</v>
+      </c>
+      <c r="B419" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C419">
+        <v>182</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>37</v>
+      </c>
+      <c r="B420" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C420">
+        <v>167</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>37</v>
+      </c>
+      <c r="B421" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C421">
+        <v>138</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>37</v>
+      </c>
+      <c r="B422" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C422">
+        <v>144</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>37</v>
+      </c>
+      <c r="B423" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C423">
+        <v>169</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>37</v>
+      </c>
+      <c r="B424" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C424">
+        <v>197</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>37</v>
+      </c>
+      <c r="B425" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C425">
+        <v>166</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>37</v>
+      </c>
+      <c r="B426" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C426">
+        <v>142</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>37</v>
+      </c>
+      <c r="B427" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C427">
+        <v>160</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>37</v>
+      </c>
+      <c r="B428" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C428">
+        <v>163</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>37</v>
+      </c>
+      <c r="B429" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C429">
+        <v>197</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C430">
+        <v>180</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>37</v>
+      </c>
+      <c r="B431" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C431">
+        <v>182</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>37</v>
+      </c>
+      <c r="B432" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C432">
+        <v>167</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C433">
+        <v>138</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D433">
+    <sortCondition ref="A95"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
